--- a/importantFactorQuestions.xlsx
+++ b/importantFactorQuestions.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boryczjd/Documents/Coding_Projects/R/DataONE_combined-survey/jdb_workfolder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EEA760-5AE3-F247-A3F5-2EC94A3BFB77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DC2315-7C0A-9E48-BE83-37E87B886B79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{675CBA65-BF1C-2B4C-996B-3EB3F18068AE}"/>
+    <workbookView xWindow="420" yWindow="460" windowWidth="25520" windowHeight="17040" xr2:uid="{675CBA65-BF1C-2B4C-996B-3EB3F18068AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="49">
   <si>
     <t>I would be willing to place all of my data into a central data repository with no restrictions.</t>
   </si>
@@ -42,15 +42,9 @@
     <t>I would be willing to share data across a broad group of researchers who use data in different ways.</t>
   </si>
   <si>
-    <t>Legal permission for data use is obtained</t>
-  </si>
-  <si>
     <t>Co-authorship on publications resulting from use of the data</t>
   </si>
   <si>
-    <t>The data provider is given a complete list of all products that make use of the data, including</t>
-  </si>
-  <si>
     <t>I would be more likely to make my data available if I could place conditions on access</t>
   </si>
   <si>
@@ -175,6 +169,15 @@
   </si>
   <si>
     <t>Interpretation</t>
+  </si>
+  <si>
+    <t>The data provider is given and agrees to a statement of uses to which the data will be put.</t>
+  </si>
+  <si>
+    <t>Legal permission for data use is obtained.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The data provider is given a complete list of all products that make use of the data, including </t>
   </si>
 </sst>
 </file>
@@ -575,37 +578,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F85329-3547-8341-AE34-D583AAD40BF9}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="128.6640625" customWidth="1"/>
-    <col min="4" max="4" width="32" style="2" customWidth="1"/>
+    <col min="3" max="3" width="100.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="118" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="6" customFormat="1" ht="35" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -613,19 +616,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -634,13 +637,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2">
         <v>3</v>
@@ -655,19 +658,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2">
         <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -676,13 +679,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2">
         <v>6</v>
@@ -697,19 +700,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -718,19 +721,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -739,19 +742,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -760,19 +763,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2">
         <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -781,19 +784,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2">
         <v>4</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -802,19 +805,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E11" s="2">
         <v>4</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -823,19 +826,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E12" s="2">
         <v>8</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -844,19 +847,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -865,19 +868,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E14" s="2">
         <v>6</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -886,19 +889,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2">
+        <v>7</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2">
-        <v>7</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -907,19 +910,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="2">
         <v>8</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -927,22 +930,22 @@
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1" ht="35" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -950,19 +953,19 @@
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="2">
         <v>2</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -971,40 +974,40 @@
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="2">
         <v>3</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
-        <f t="shared" ref="A21:A33" si="1">A20+1</f>
+        <f t="shared" ref="A21:A29" si="1">A20+1</f>
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -1013,19 +1016,19 @@
         <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -1034,19 +1037,19 @@
         <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -1055,19 +1058,19 @@
         <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -1076,19 +1079,19 @@
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -1097,19 +1100,19 @@
         <v>8</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -1118,19 +1121,19 @@
         <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E27" s="2">
         <v>4</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -1139,19 +1142,19 @@
         <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.15">
@@ -1160,19 +1163,19 @@
         <v>11</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E29" s="2">
         <v>3</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1180,13 +1183,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
@@ -1194,5 +1197,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>